--- a/data/trans_camb/IP08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP08-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-6,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-5,48</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>-2,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 6,66</t>
+          <t>-4,54; 5,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 0,08</t>
+          <t>-10,47; -1,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 8,09</t>
+          <t>-5,23; 5,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 6,5</t>
+          <t>-4,37; 5,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 2,8</t>
+          <t>-9,39; -0,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 8,43</t>
+          <t>-10,13; -0,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 5,55</t>
+          <t>-3,46; 3,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,49</t>
+          <t>-8,59; -2,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 7,21</t>
+          <t>-6,22; 0,68</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-38,42%</t>
+          <t>-51,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>-0,44%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>46,11%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,7%</t>
+          <t>-43,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>81,52%</t>
+          <t>-46,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-25,27%</t>
+          <t>-47,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>47,7%</t>
+          <t>-22,06%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 93,12</t>
+          <t>-33,39; 66,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-64,46; 3,9</t>
+          <t>-70,57; -15,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 105,25</t>
+          <t>-38,04; 58,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 154,88</t>
+          <t>-32,43; 67,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,05; 67,83</t>
+          <t>-67,93; -4,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,97; 199,24</t>
+          <t>-72,26; -4,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 87,95</t>
+          <t>-25,39; 39,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,49; 9,26</t>
+          <t>-63,51; -25,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,6; 109,34</t>
+          <t>-46,42; 7,88</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,15</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,1</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,48</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>3,57</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 5,79</t>
+          <t>-1,74; 6,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,47; -1,69</t>
+          <t>-7,33; 0,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 5,52</t>
+          <t>-1,69; 8,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 5,57</t>
+          <t>-0,77; 6,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,39; -0,59</t>
+          <t>-3,65; 2,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,13; -0,63</t>
+          <t>1,24; 8,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 3,9</t>
+          <t>-0,1; 5,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,59; -2,42</t>
+          <t>-4,41; 0,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 0,68</t>
+          <t>0,96; 7,21</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>25,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-51,22%</t>
+          <t>-38,42%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,44%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>46,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-43,31%</t>
+          <t>-3,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-46,35%</t>
+          <t>81,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-47,55%</t>
+          <t>-25,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-22,06%</t>
+          <t>47,7%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,39; 66,74</t>
+          <t>-16,43; 93,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-70,57; -15,65</t>
+          <t>-64,46; 3,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,04; 58,41</t>
+          <t>-17,17; 105,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,43; 67,76</t>
+          <t>-12,12; 154,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-67,93; -4,99</t>
+          <t>-52,05; 67,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-72,26; -4,21</t>
+          <t>14,97; 199,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,39; 39,07</t>
+          <t>-1,82; 87,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-63,51; -25,33</t>
+          <t>-50,49; 9,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-46,42; 7,88</t>
+          <t>9,6; 109,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP08-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>4,85</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 8,8</t>
+          <t>-3,09; 12,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 0,76</t>
+          <t>-9,7; 3,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 8,81</t>
+          <t>-3,82; 14,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 11,91</t>
+          <t>-1,5; 11,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 5,25</t>
+          <t>-8,22; 3,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 9,14</t>
+          <t>-2,9; 14,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 8,5</t>
+          <t>0,27; 9,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 1,41</t>
+          <t>-6,69; 1,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 6,71</t>
+          <t>-1,05; 11,53</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>33,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-30,02%</t>
+          <t>-20,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>75,94%</t>
+          <t>52,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>-21,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>51,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,37%</t>
+          <t>40,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-17,73%</t>
+          <t>-22,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>43,24%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 76,01</t>
+          <t>-18,24; 130,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-55,53; 6,87</t>
+          <t>-57,67; 43,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 74,8</t>
+          <t>-24,08; 154,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,72; 181,1</t>
+          <t>-12,75; 191,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,51; 83,24</t>
+          <t>-62,85; 58,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,75; 141,75</t>
+          <t>-28,44; 232,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,09; 87,6</t>
+          <t>1,18; 108,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,86; 13,3</t>
+          <t>-49,52; 22,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 66,31</t>
+          <t>-10,71; 125,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,15</t>
+          <t>-5,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,1</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,48</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-2,6</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 5,79</t>
+          <t>-4,66; 5,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,47; -1,69</t>
+          <t>-9,93; -1,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 5,52</t>
+          <t>-6,97; 3,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 5,57</t>
+          <t>-2,32; 7,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,39; -0,59</t>
+          <t>-4,92; 3,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,13; -0,63</t>
+          <t>-7,87; 0,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 3,9</t>
+          <t>-2,18; 4,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; -2,42</t>
+          <t>-6,85; -0,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 0,68</t>
+          <t>-5,99; 0,68</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-51,22%</t>
+          <t>-40,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,44%</t>
+          <t>-12,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>22,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-43,31%</t>
+          <t>-9,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-46,35%</t>
+          <t>-38,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-47,55%</t>
+          <t>-27,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-22,06%</t>
+          <t>-22,02%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,39; 66,74</t>
+          <t>-28,97; 52,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-70,57; -15,65</t>
+          <t>-61,19; -10,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,04; 58,41</t>
+          <t>-43,61; 33,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,43; 67,76</t>
+          <t>-19,65; 100,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-67,93; -4,99</t>
+          <t>-42,62; 45,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-72,26; -4,21</t>
+          <t>-67,94; 14,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,39; 39,07</t>
+          <t>-15,72; 49,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,51; -25,33</t>
+          <t>-48,13; -2,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-46,42; 7,88</t>
+          <t>-45,32; 6,66</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-7,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-6,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-6,78</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>-0,5</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 6,66</t>
+          <t>-6,53; 4,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 0,08</t>
+          <t>-12,72; -3,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 8,09</t>
+          <t>-5,65; 5,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 6,5</t>
+          <t>-4,6; 8,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 2,8</t>
+          <t>-11,15; -1,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 8,43</t>
+          <t>-7,53; 4,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 5,55</t>
+          <t>-3,81; 4,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,49</t>
+          <t>-10,45; -3,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 7,21</t>
+          <t>-4,62; 3,98</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>-11,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-38,42%</t>
+          <t>-70,55%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>46,11%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,7%</t>
+          <t>-56,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>81,52%</t>
+          <t>-11,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-25,27%</t>
+          <t>-63,3%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>47,7%</t>
+          <t>-4,64%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 93,12</t>
+          <t>-48,55; 67,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,46; 3,9</t>
+          <t>-89,84; -39,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 105,25</t>
+          <t>-40,56; 72,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 154,88</t>
+          <t>-34,75; 124,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,05; 67,83</t>
+          <t>-79,11; -7,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,97; 199,24</t>
+          <t>-53,06; 61,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 87,95</t>
+          <t>-31,12; 54,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-50,49; 9,26</t>
+          <t>-79,07; -40,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,6; 109,34</t>
+          <t>-35,87; 44,92</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>4,99</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 4,83</t>
+          <t>-0,15; 10,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,22; -2,31</t>
+          <t>-6,16; 2,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 4,55</t>
+          <t>-0,8; 11,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 5,9</t>
+          <t>0,27; 8,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 0,7</t>
+          <t>-1,67; 6,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,7</t>
+          <t>2,58; 10,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,58</t>
+          <t>1,2; 7,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,78; -1,51</t>
+          <t>-2,8; 3,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,99</t>
+          <t>1,93; 9,16</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>55,28%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-40,01%</t>
+          <t>-21,28%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>45,39%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>41,2%</t>
+          <t>92,43%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-17,84%</t>
+          <t>50,67%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>150,2%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>27,08%</t>
+          <t>66,46%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-31,09%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>77,93%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 46,35</t>
+          <t>-2,63; 152,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-55,47; -21,96</t>
+          <t>-56,73; 43,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 43,76</t>
+          <t>-9,47; 187,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,67; 84,63</t>
+          <t>-0,43; 316,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-40,67; 10,26</t>
+          <t>-31,17; 247,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 53,8</t>
+          <t>37,06; 416,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,16; 50,84</t>
+          <t>14,42; 149,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,99; -16,51</t>
+          <t>-38,02; 64,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 32,09</t>
+          <t>22,71; 170,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-4,63</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-1,47</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-3,1</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 4,7</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-7,21; -2,12</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 4,43</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 5,97</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 0,77</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,57; 3,92</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 4,81</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,73; -1,23</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 3,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>17,56%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-40,01%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>7,06%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>41,2%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-17,84%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>12,99%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>27,08%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-31,09%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>9,79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-6,93; 46,16</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-54,55; -20,58</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-17,58; 43,11</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>6,81; 83,64</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-39,75; 10,7</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-17,07; 54,24</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>6,35; 52,02</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-43,3; -13,87</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-9,25; 36,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP08-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 12,1</t>
+          <t>-2,6; 11,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 3,79</t>
+          <t>-9,49; 3,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 14,57</t>
+          <t>-3,04; 14,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 11,49</t>
+          <t>-1,57; 11,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 3,63</t>
+          <t>-7,73; 3,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 14,36</t>
+          <t>-2,59; 15,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 9,21</t>
+          <t>-0,5; 9,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 1,93</t>
+          <t>-6,74; 1,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 11,53</t>
+          <t>-0,46; 11,61</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 130,5</t>
+          <t>-15,97; 129,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-57,67; 43,48</t>
+          <t>-56,71; 44,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,08; 154,9</t>
+          <t>-21,39; 153,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 191,74</t>
+          <t>-14,1; 187,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-62,85; 58,2</t>
+          <t>-61,74; 57,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,44; 232,52</t>
+          <t>-24,84; 250,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 108,75</t>
+          <t>-4,75; 102,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,52; 22,4</t>
+          <t>-50,43; 23,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 125,34</t>
+          <t>-8,32; 121,42</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 5,62</t>
+          <t>-4,64; 5,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,93; -1,28</t>
+          <t>-9,89; -1,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 3,76</t>
+          <t>-7,32; 3,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 7,06</t>
+          <t>-2,35; 7,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 3,33</t>
+          <t>-5,15; 3,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 0,55</t>
+          <t>-7,99; 0,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 4,87</t>
+          <t>-1,96; 4,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,85; -0,34</t>
+          <t>-6,72; -0,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 0,68</t>
+          <t>-6,16; 0,97</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,97; 52,42</t>
+          <t>-28,31; 45,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,19; -10,19</t>
+          <t>-61,03; -12,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,61; 33,07</t>
+          <t>-44,32; 29,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 100,46</t>
+          <t>-19,73; 99,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,62; 45,11</t>
+          <t>-43,56; 44,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-67,94; 14,81</t>
+          <t>-67,43; 9,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 49,07</t>
+          <t>-14,33; 49,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,13; -2,62</t>
+          <t>-49,47; -1,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-45,32; 6,66</t>
+          <t>-45,73; 9,87</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 4,39</t>
+          <t>-6,69; 4,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,72; -3,38</t>
+          <t>-13,13; -3,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 5,63</t>
+          <t>-5,47; 6,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 8,57</t>
+          <t>-4,53; 8,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,15; -1,01</t>
+          <t>-11,64; -1,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 4,57</t>
+          <t>-6,86; 4,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 4,74</t>
+          <t>-3,39; 5,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,45; -3,86</t>
+          <t>-10,35; -3,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 3,98</t>
+          <t>-4,55; 3,78</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-48,55; 67,87</t>
+          <t>-51,31; 62,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-89,84; -39,07</t>
+          <t>-87,84; -37,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-40,56; 72,23</t>
+          <t>-39,25; 82,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,75; 124,96</t>
+          <t>-31,64; 119,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-79,11; -7,65</t>
+          <t>-79,56; -19,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,06; 61,43</t>
+          <t>-49,97; 67,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,12; 54,53</t>
+          <t>-27,01; 60,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-79,07; -40,72</t>
+          <t>-78,9; -39,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,87; 44,92</t>
+          <t>-36,79; 44,42</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 10,19</t>
+          <t>0,04; 10,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 2,49</t>
+          <t>-6,25; 2,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 11,55</t>
+          <t>-1,07; 12,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 8,11</t>
+          <t>0,01; 7,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 6,11</t>
+          <t>-1,56; 6,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,58; 10,9</t>
+          <t>2,23; 10,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,75</t>
+          <t>0,99; 7,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 3,15</t>
+          <t>-2,8; 3,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,93; 9,16</t>
+          <t>1,69; 9,55</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 152,72</t>
+          <t>-1,25; 156,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-56,73; 43,1</t>
+          <t>-58,56; 46,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 187,41</t>
+          <t>-13,18; 186,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 316,96</t>
+          <t>-7,67; 303,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,17; 247,28</t>
+          <t>-31,28; 229,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>37,06; 416,22</t>
+          <t>24,71; 401,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,42; 149,32</t>
+          <t>12,28; 149,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-38,02; 64,23</t>
+          <t>-37,19; 60,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>22,71; 170,21</t>
+          <t>21,56; 178,2</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 4,7</t>
+          <t>-0,72; 4,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,21; -2,12</t>
+          <t>-6,96; -2,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 4,43</t>
+          <t>-2,21; 4,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,97</t>
+          <t>0,56; 6,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 0,77</t>
+          <t>-3,92; 0,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,92</t>
+          <t>-1,62; 3,59</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,81</t>
+          <t>0,69; 4,65</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,73; -1,23</t>
+          <t>-4,73; -1,33</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 3,39</t>
+          <t>-0,81; 3,23</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 46,16</t>
+          <t>-5,83; 47,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-54,55; -20,58</t>
+          <t>-54,28; -21,49</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 43,11</t>
+          <t>-17,6; 40,43</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,81; 83,64</t>
+          <t>5,48; 86,92</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-39,75; 10,7</t>
+          <t>-41,7; 12,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 54,24</t>
+          <t>-17,33; 51,98</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6,35; 52,02</t>
+          <t>6,21; 52,02</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-43,3; -13,87</t>
+          <t>-43,87; -15,22</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 36,33</t>
+          <t>-7,77; 35,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP08-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,20 +531,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que han sufrido alguna dolencia o enfermedad continuada</t>
+          <t>Menores que sufrieron alguna dolencia, enfermedad o impedimento que le ha limitado de forma continuada (más de 10 días en los últimos 12 meses)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4,96</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-2,04</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,79</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>4,29</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-2,62</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,05</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,96</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-2,04</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>5,27</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 11,93</t>
+          <t>-1,31; 11,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 3,72</t>
+          <t>-8,5; 3,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 14,47</t>
+          <t>-3,46; 14,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 11,11</t>
+          <t>-2,84; 10,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 3,56</t>
+          <t>-9,58; 4,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 15,6</t>
+          <t>-3,2; 15,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 9,31</t>
+          <t>-0,39; 9,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 1,95</t>
+          <t>-6,73; 2,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 11,61</t>
+          <t>-1,16; 11,48</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>52,66%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-21,68%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>50,79%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>33,52%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-20,49%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>39,5%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>52,66%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-21,68%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>51,37%</t>
+          <t>45,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>43,24%</t>
+          <t>47,0%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 129,58</t>
+          <t>-13,06; 187,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-56,71; 44,04</t>
+          <t>-62,8; 66,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,39; 153,13</t>
+          <t>-30,58; 232,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 187,35</t>
+          <t>-19,13; 115,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-61,74; 57,36</t>
+          <t>-56,9; 46,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,84; 250,13</t>
+          <t>-22,67; 151,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 102,28</t>
+          <t>-4,23; 99,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,43; 23,08</t>
+          <t>-50,26; 24,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 121,42</t>
+          <t>-8,34; 128,1</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,91</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-3,91</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,44</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-5,59</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,74</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,23</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-2,45</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 5,11</t>
+          <t>-2,43; 6,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,89; -1,35</t>
+          <t>-4,86; 3,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 3,49</t>
+          <t>-7,97; 0,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 7,02</t>
+          <t>-4,18; 5,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 3,42</t>
+          <t>-10,09; -1,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 0,54</t>
+          <t>-6,76; 4,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 4,96</t>
+          <t>-1,85; 4,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,72; -0,24</t>
+          <t>-6,42; -0,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 0,97</t>
+          <t>-5,81; 0,91</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>22,92%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-9,32%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-40,12%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>3,14%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-40,33%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-12,55%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>22,92%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-9,32%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-38,57%</t>
+          <t>-10,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-22,02%</t>
+          <t>-20,77%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,31; 45,0</t>
+          <t>-21,57; 91,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,03; -12,01</t>
+          <t>-41,69; 48,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,32; 29,25</t>
+          <t>-65,66; 5,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,73; 99,87</t>
+          <t>-26,25; 45,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,56; 44,08</t>
+          <t>-61,7; -10,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-67,43; 9,57</t>
+          <t>-42,55; 36,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 49,74</t>
+          <t>-14,16; 45,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,47; -1,91</t>
+          <t>-48,06; -0,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-45,73; 9,87</t>
+          <t>-42,87; 9,84</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-6,03</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-1,24</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-7,53</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,12</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-6,03</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,29</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 4,65</t>
+          <t>-3,98; 9,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,13; -3,27</t>
+          <t>-11,85; -1,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 6,21</t>
+          <t>-7,22; 4,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 8,86</t>
+          <t>-6,88; 4,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,64; -1,66</t>
+          <t>-12,88; -3,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 4,79</t>
+          <t>-5,45; 6,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 5,06</t>
+          <t>-4,19; 4,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,35; -3,3</t>
+          <t>-10,25; -3,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 3,78</t>
+          <t>-4,45; 3,81</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>19,75%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-56,12%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-9,96%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-11,65%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-70,55%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,15%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>19,75%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-56,12%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-11,25%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-4,64%</t>
+          <t>-2,71%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,31; 62,18</t>
+          <t>-29,26; 126,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-87,84; -37,09</t>
+          <t>-79,68; -9,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-39,25; 82,27</t>
+          <t>-51,02; 68,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,64; 119,44</t>
+          <t>-50,74; 62,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-79,56; -19,7</t>
+          <t>-89,69; -38,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,97; 67,25</t>
+          <t>-40,17; 88,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,01; 60,38</t>
+          <t>-31,04; 53,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-78,9; -39,53</t>
+          <t>-77,75; -36,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-36,79; 44,42</t>
+          <t>-34,44; 45,38</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>3,75</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6,61</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>4,77</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-1,84</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,91</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>3,75</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>2,06</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>5,84</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,04; 10,04</t>
+          <t>0,21; 7,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 2,81</t>
+          <t>-1,33; 6,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 12,09</t>
+          <t>2,15; 14,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 7,96</t>
+          <t>-0,15; 10,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 6,03</t>
+          <t>-6,27; 2,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 10,59</t>
+          <t>-0,26; 16,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 7,6</t>
+          <t>1,17; 7,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 3,22</t>
+          <t>-2,89; 3,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 9,55</t>
+          <t>2,1; 12,38</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>92,43%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>50,67%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>163,06%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>55,28%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-21,28%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>45,39%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>92,43%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>50,67%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>150,2%</t>
+          <t>58,53%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>77,93%</t>
+          <t>91,08%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 156,99</t>
+          <t>-4,24; 312,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-58,56; 46,83</t>
+          <t>-28,89; 245,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 186,17</t>
+          <t>30,52; 488,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 303,36</t>
+          <t>-4,73; 161,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,28; 229,15</t>
+          <t>-59,46; 41,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,71; 401,24</t>
+          <t>-6,95; 224,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,28; 149,08</t>
+          <t>15,4; 163,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-37,19; 60,72</t>
+          <t>-37,28; 59,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>21,56; 178,2</t>
+          <t>25,92; 212,28</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,47</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>2,03</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-4,63</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,82</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>3,4</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-1,47</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>1,45</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 4,91</t>
+          <t>0,79; 5,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,96; -2,16</t>
+          <t>-3,9; 0,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 4,39</t>
+          <t>-1,55; 4,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,56; 6,11</t>
+          <t>-0,72; 4,83</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 0,89</t>
+          <t>-7,22; -2,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 3,59</t>
+          <t>-1,71; 6,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,69; 4,65</t>
+          <t>1,01; 4,58</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,73; -1,33</t>
+          <t>-4,78; -1,51</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 3,23</t>
+          <t>-0,98; 4,08</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>41,2%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-17,84%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>15,73%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>17,56%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-40,01%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>7,06%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>41,2%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-17,84%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>14,57%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 47,65</t>
+          <t>7,67; 84,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-54,28; -21,49</t>
+          <t>-40,67; 10,26</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 40,43</t>
+          <t>-16,68; 63,12</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5,48; 86,92</t>
+          <t>-6,27; 46,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-41,7; 12,59</t>
+          <t>-55,47; -21,96</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 51,98</t>
+          <t>-14,27; 59,46</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6,21; 52,02</t>
+          <t>9,16; 50,84</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-43,87; -15,22</t>
+          <t>-43,99; -16,51</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 35,5</t>
+          <t>-9,77; 43,31</t>
         </is>
       </c>
     </row>
